--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_16-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_16-20.xlsx
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
   </si>
   <si>
     <t>VONACIDAN 20 MG 20 F.C.TABS.</t>
@@ -1347,7 +1350,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1365,7 +1368,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1391,7 +1394,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1399,7 +1402,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1409,7 +1412,7 @@
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1417,7 +1420,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1443,7 +1446,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1451,7 +1454,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1469,7 +1472,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1477,7 +1480,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1495,7 +1498,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1521,7 +1524,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1529,7 +1532,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1547,7 +1550,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1573,7 +1576,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1599,7 +1602,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1630,19 +1633,19 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c t="s" r="A38" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c t="s" r="F38" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
       <c t="s" r="I38" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
